--- a/biology/Zoologie/Eryx_(genre)/Eryx_(genre).xlsx
+++ b/biology/Zoologie/Eryx_(genre)/Eryx_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Eryx est un genre de serpents de la famille des Boidae[1].
+Eryx est un genre de serpents de la famille des Boidae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent dans le sud-est de l'Europe, dans le nord de l'Afrique et dans le sud de l'Asie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent dans le sud-est de l'Europe, dans le nord de l'Afrique et dans le sud de l'Asie.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (4 août 2011)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (4 août 2011) :
 Eryx borrii Lanza &amp; Nistri, 2005
 Eryx colubrinus (Linnaeus, 1758)
 Eryx conicus (Schneider, 1801)
@@ -585,9 +601,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de ce genre, Eryx, vient de Éryx, fils d'Aphrodite tué par Héraclès, et ayant donné son nom au mont Éryx[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de ce genre, Eryx, vient de Éryx, fils d'Aphrodite tué par Héraclès, et ayant donné son nom au mont Éryx.
 </t>
         </is>
       </c>
@@ -616,7 +634,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Daudin, 1803 : Histoire Naturelle, Générale et Particulière des Reptiles; ouvrage faisant suit à l'Histoire naturelle générale et particulière, composée par Leclerc de Buffon; et rédigee par C.S. Sonnini, membre de plusieurs sociétés savantes, vol. 7, F. Dufart, Paris, p. 1-436 (texte intégral).</t>
         </is>
